--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4393</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shardul Narendra Thakur</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>31/08/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>03/09/2017</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>18/12/2019</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/12/2020</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>23/03/2021</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1406,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>06/02/2022</t>
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1609,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>27/07/2022</t>
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1600,7 +1656,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>20/08/2022</t>
@@ -1608,7 +1663,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1660,7 +1715,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1712,7 +1767,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1807,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>09/10/2022</t>
@@ -1760,7 +1814,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1800,7 +1854,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>11/10/2022</t>
@@ -1808,7 +1861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1860,7 +1913,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1912,7 +1965,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1964,7 +2017,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2016,7 +2069,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2068,7 +2121,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2108,7 +2161,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -2116,7 +2168,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2168,7 +2220,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2208,7 +2260,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>17/03/2023</t>
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2255,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2277,7 +2328,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2314,7 +2365,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4064</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2351,7 +2402,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2388,7 +2439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2425,7 +2476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2462,7 +2513,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4196</t>
+          <t>4196</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2499,7 +2550,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4387</t>
+          <t>4387</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2536,7 +2587,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4388</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2573,7 +2624,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2610,7 +2661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2647,7 +2698,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2684,7 +2735,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2721,7 +2772,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2758,7 +2809,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2795,7 +2846,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2832,7 +2883,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2869,7 +2920,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4524</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2906,7 +2957,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4526</t>
+          <t>4526</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2943,7 +2994,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2980,7 +3031,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3017,7 +3068,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4621</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3054,7 +3105,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3091,7 +3142,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3128,7 +3179,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4640</t>
+          <t>4640</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3165,7 +3216,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4643</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3202,7 +3253,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4656</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3239,7 +3290,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4657</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3276,7 +3327,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4658</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3313,7 +3364,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3350,7 +3401,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4679</t>
+          <t>4679</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3387,7 +3438,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4682</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3424,7 +3475,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4685</t>
+          <t>4685</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3461,7 +3512,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3498,7 +3549,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3535,7 +3586,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3572,7 +3623,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3598,6 +3649,487 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>0/12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3709,15 +3710,428 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3725,27 +4139,14 @@
           <t>4526</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13.94%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3757,13 +4158,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3771,27 +4165,14 @@
           <t>4535</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.38%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3801,27 +4182,14 @@
           <t>4621</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3833,13 +4201,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3847,15 +4208,14 @@
           <t>4624</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3865,15 +4225,14 @@
           <t>4640</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3885,13 +4244,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3901,13 +4253,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3915,15 +4260,14 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3933,17 +4277,12 @@
           <t>4658</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>6</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3951,27 +4290,14 @@
           <t>4669</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3981,27 +4307,14 @@
           <t>4679</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.08%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4011,29 +4324,12 @@
           <t>4682</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4043,13 +4339,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4059,13 +4348,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4073,15 +4355,14 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4091,27 +4372,14 @@
           <t>4697</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.49%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4121,17 +4389,12 @@
           <t>4725</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3710,6 +3709,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3752,6 +3755,10 @@
           <t>4533</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3824,6 +3831,10 @@
           <t>4623</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3839,6 +3850,9 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3854,6 +3868,9 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3866,6 +3883,10 @@
           <t>4643</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3878,6 +3899,10 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3893,6 +3918,9 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3908,6 +3936,9 @@
       <c r="B13" t="n">
         <v>6</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4010,6 +4041,10 @@
           <t>4685</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4022,6 +4057,10 @@
           <t>4692</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4037,6 +4076,9 @@
       <c r="B19" t="n">
         <v>8</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4082,319 +4124,14 @@
       <c r="B21" t="n">
         <v>8</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4640</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4643</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4682</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4685</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4725</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_4393.xlsx
@@ -3663,7 +3663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3706,10 +3706,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -3722,27 +3724,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13.94%</t>
-        </is>
-      </c>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3752,10 +3740,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -3768,27 +3758,13 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.38%</t>
-        </is>
-      </c>
+          <t>4175</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3798,27 +3774,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4621</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.27%</t>
-        </is>
-      </c>
+          <t>4196</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3828,10 +3790,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -3844,15 +3808,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3862,15 +3838,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4640</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.10%</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3880,7 +3868,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -3896,7 +3884,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -3912,15 +3900,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.36%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3930,11 +3930,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3948,27 +3948,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3978,27 +3966,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4679</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.08%</t>
-        </is>
-      </c>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4008,25 +3982,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4682</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.63%</t>
+          <t>9.12%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4038,7 +4012,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4685</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -4054,13 +4028,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4070,12 +4058,10 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -4088,7 +4074,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4096,38 +4082,358 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.49%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>4621</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4640</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4679</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4685</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6.49%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
